--- a/SampleData1.xlsx
+++ b/SampleData1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MickC\Documents\github\hack-visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B261CDE2-DA42-4001-BE60-21902C0763F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B63D3-86D7-490C-9047-947CE1233DEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="224633917" sheetId="1" r:id="rId1"/>
@@ -1945,7 +1945,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2781,11 +2781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2794,8 +2794,15 @@
     <col min="2" max="2" width="56.9453125" customWidth="1"/>
     <col min="3" max="3" width="15.68359375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5234375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.1015625" style="2" customWidth="1"/>
     <col min="8" max="8" width="56.5234375" customWidth="1"/>
+    <col min="12" max="12" width="37.5234375" customWidth="1"/>
+    <col min="13" max="13" width="38.578125" customWidth="1"/>
+    <col min="14" max="14" width="39.26171875" customWidth="1"/>
+    <col min="15" max="15" width="28.05078125" customWidth="1"/>
+    <col min="16" max="16" width="36.89453125" customWidth="1"/>
+    <col min="17" max="17" width="48.734375" customWidth="1"/>
+    <col min="18" max="18" width="44.3671875" customWidth="1"/>
     <col min="19" max="19" width="17.26171875" customWidth="1"/>
   </cols>
   <sheetData>
